--- a/ASP/publishing/publishing/wwwroot/Reports/start_bookings_result.xlsx
+++ b/ASP/publishing/publishing/wwwroot/Reports/start_bookings_result.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Новые заказы</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>Заказчик</t>
+  </si>
+  <si>
+    <t>Отсутствует</t>
+  </si>
+  <si>
+    <t>201,28 ₽</t>
+  </si>
+  <si>
+    <t>Комаров Роман Дмитриевич</t>
   </si>
   <si>
     <t>28.05.2023</t>
@@ -396,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -444,7 +453,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>1</v>
@@ -457,6 +466,26 @@
       </c>
       <c r="F4" s="0" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>2</v>
+      </c>
+      <c r="B5" s="0">
+        <v>27</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
